--- a/data/trans_bre/P3A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>19.7580299639353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20.85660325871113</v>
+        <v>20.8566032587111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.012568780593278</v>
@@ -649,7 +649,7 @@
         <v>0.2918397173973167</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2926590687377498</v>
+        <v>0.2926590687377494</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>33.11033159820006</v>
+        <v>33.17559989944249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>27.25739047095599</v>
+        <v>26.78790562018665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13.49772442017772</v>
+        <v>13.08103463583318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.97729951314292</v>
+        <v>16.49511784441821</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7649122289680191</v>
+        <v>0.7651962913406577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4921803634391056</v>
+        <v>0.4929945335318375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1901048007455192</v>
+        <v>0.1848614927140496</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2147357795212274</v>
+        <v>0.2246283901081836</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.43166090912239</v>
+        <v>46.73535937627817</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>40.16703250661589</v>
+        <v>40.03425135963675</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.57830768699902</v>
+        <v>25.37364804125866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.72191984186846</v>
+        <v>25.69025791223611</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.299389354233758</v>
+        <v>1.311499242858487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8438663218760446</v>
+        <v>0.860179424726083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.403527252413975</v>
+        <v>0.4043373843446014</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3808936946680911</v>
+        <v>0.3815249782163734</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>28.19085597848874</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24.69952047367512</v>
+        <v>24.69952047367513</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7808681493695213</v>
@@ -749,7 +749,7 @@
         <v>0.4324362359145835</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3558451756748667</v>
+        <v>0.355845175674867</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>29.90875614369548</v>
+        <v>30.16119239436747</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>27.97015429234605</v>
+        <v>28.20728625764203</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22.78984884525403</v>
+        <v>22.57087858855513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19.90177020794989</v>
+        <v>19.2429661583193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5774117152308194</v>
+        <v>0.5878603178402878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.47577365022806</v>
+        <v>0.484348149259006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3275110685539798</v>
+        <v>0.3231240743428735</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2733092645694334</v>
+        <v>0.2601938068052939</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>42.78459320718893</v>
+        <v>43.28416148193316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.05528494444851</v>
+        <v>41.64461084703358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34.13563023049236</v>
+        <v>33.74337215092169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.15073838985587</v>
+        <v>29.65149780579165</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.007640551801292</v>
+        <v>1.018824574716116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8261885967497102</v>
+        <v>0.8447162820275907</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5626128874950899</v>
+        <v>0.5596266254656959</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4665433117201315</v>
+        <v>0.4558293778361123</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>35.85887074755904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26.15798016173281</v>
+        <v>26.1579801617328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.584236738752821</v>
@@ -849,7 +849,7 @@
         <v>0.6465527437798376</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4028994636953308</v>
+        <v>0.4028994636953306</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45.72739115435542</v>
+        <v>46.272480370596</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>32.02105334259537</v>
+        <v>31.61869172906492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.62184913533371</v>
+        <v>29.53662462807937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.59236902447051</v>
+        <v>18.59018477034728</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.225992181460804</v>
+        <v>1.221285815827343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6371003269298781</v>
+        <v>0.6380871768052646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5025446865240301</v>
+        <v>0.5028368090652088</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2738285575200834</v>
+        <v>0.2758606743828996</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>59.55068558701652</v>
+        <v>60.11819392408317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>44.21019637988356</v>
+        <v>43.89331844198097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41.82217549494565</v>
+        <v>41.69561163550497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.86185071815175</v>
+        <v>32.1319354347122</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.924797016409333</v>
+        <v>1.948463036031997</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.01053552723665</v>
+        <v>0.9995094877524631</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8116559200478135</v>
+        <v>0.8052226803257819</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5213644911840145</v>
+        <v>0.5257847460544048</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>36.75355711491488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28.03167190812053</v>
+        <v>28.03167190812054</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.592016973439488</v>
@@ -949,7 +949,7 @@
         <v>0.6877453974571576</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4198889959602271</v>
+        <v>0.4198889959602272</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>49.38739414021347</v>
+        <v>48.95351123667545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>41.8822496066056</v>
+        <v>41.62669716234868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32.88960280255995</v>
+        <v>32.96253891450594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24.48176058744397</v>
+        <v>24.61124095320379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.396143726635175</v>
+        <v>1.377212381841713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9022862097963668</v>
+        <v>0.9029697063976105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5884438278497975</v>
+        <v>0.5961250485931668</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3523458532346168</v>
+        <v>0.3528621110539272</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>56.72913438975693</v>
+        <v>56.61820400025356</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>49.32060437649131</v>
+        <v>49.5334203856799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40.19174106541985</v>
+        <v>40.35206920440671</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31.14407686354632</v>
+        <v>31.16490754008944</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.818989369982189</v>
+        <v>1.83201593866079</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.20779909813231</v>
+        <v>1.2182767009301</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.792732928504653</v>
+        <v>0.8001088868426112</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4879041178850846</v>
+        <v>0.486840133133409</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>45.38998101810328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31.4711748303519</v>
+        <v>31.47117483035192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.537655775113092</v>
@@ -1049,7 +1049,7 @@
         <v>0.9858740831014418</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5021030515072977</v>
+        <v>0.5021030515072982</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>48.85472439851119</v>
+        <v>49.26666956149075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>41.5955062300233</v>
+        <v>41.13792676077399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41.0006426981148</v>
+        <v>40.39826448228238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27.17333509526131</v>
+        <v>27.06856889524404</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.179007453511513</v>
+        <v>1.210861383887372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.93008740752703</v>
+        <v>0.9301549918486031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8237886190490326</v>
+        <v>0.8019900617258386</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4074829948663033</v>
+        <v>0.4045450363833631</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>60.36471410848553</v>
+        <v>60.53677952732723</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>51.89175770411452</v>
+        <v>51.83443053753061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.70185247403839</v>
+        <v>50.12998324696668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36.33896075206355</v>
+        <v>36.37305752575388</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.951465429464222</v>
+        <v>1.971839843513166</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.427469551879322</v>
+        <v>1.426083463562271</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.180179463303603</v>
+        <v>1.183966341065819</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6245814798584669</v>
+        <v>0.6252749617514376</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>54.75507074158907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36.4328037397351</v>
+        <v>36.43280373973511</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5.834983479548903</v>
@@ -1149,7 +1149,7 @@
         <v>2.189009402940906</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8181187367087814</v>
+        <v>0.8181187367087818</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>63.89212524682821</v>
+        <v>63.93340436788668</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>55.43971949419092</v>
+        <v>55.8060243367001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48.42517463213469</v>
+        <v>47.93724864823613</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25.21807338169777</v>
+        <v>25.66078283403138</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>3.971276113815577</v>
+        <v>4.003685777688614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.929185749503807</v>
+        <v>3.087902377042722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.576409479032721</v>
+        <v>1.558930221684773</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4629588416632144</v>
+        <v>0.4711537460094417</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>72.96626029531285</v>
+        <v>72.91389400011433</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>65.48957084016402</v>
+        <v>65.68472959453645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60.4499738757024</v>
+        <v>60.49435060837002</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46.25803471635246</v>
+        <v>47.46007637431107</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.540290602394544</v>
+        <v>8.588953542684003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.194595295200452</v>
+        <v>6.652205223328266</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.010465127936996</v>
+        <v>3.057288015466892</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.296739945014157</v>
+        <v>1.389263197446243</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>47.67554464221074</v>
+        <v>47.74941760633497</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>37.83591013261656</v>
+        <v>37.55619387062817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32.26998405347621</v>
+        <v>32.21165542748771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23.40813185535658</v>
+        <v>23.21901644258124</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.340596869322356</v>
+        <v>1.330925951784849</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8372274067801232</v>
+        <v>0.8225577984392008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5869989815252749</v>
+        <v>0.5918374387977248</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3494362225074193</v>
+        <v>0.3471131940189952</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>51.99978866634495</v>
+        <v>52.14307525890038</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>42.11310436559128</v>
+        <v>41.87223335520355</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.33405797296503</v>
+        <v>36.42923093371256</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.40103342649603</v>
+        <v>27.35821028182163</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.595927464910023</v>
+        <v>1.594242971590482</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.002650907247867</v>
+        <v>0.9872556263844955</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7036626542753198</v>
+        <v>0.7093782072205405</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4282320025490806</v>
+        <v>0.4288429206802111</v>
       </c>
     </row>
     <row r="25">
